--- a/test/data/测试数据-实时推送-kafka工具.xlsx
+++ b/test/data/测试数据-实时推送-kafka工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="22" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="1816">
   <si>
     <t>testcase</t>
   </si>
@@ -6566,10 +6566,10 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="121.5" spans="1:9">
+    <row r="2" s="16" customFormat="1" ht="94.5" spans="1:9">
       <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" s="20">
         <v>500</v>
@@ -6660,7 +6660,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" s="20">
         <v>500</v>
@@ -6686,7 +6686,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20">
         <v>500</v>
@@ -6712,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" s="20">
         <v>500</v>
@@ -6738,7 +6738,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="20">
         <v>500</v>
@@ -6764,7 +6764,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" s="20">
         <v>20</v>
@@ -18169,9 +18169,9 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A46"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66923076923077" defaultRowHeight="14" customHeight="1"/>
@@ -18306,8 +18306,8 @@
       <c r="H3" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>636</v>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>118</v>
@@ -26998,7 +26998,7 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -32600,7 +32600,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66923076923077" defaultRowHeight="14" customHeight="1"/>
@@ -47145,9 +47145,9 @@
   <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="$A47:$XFD47"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66923076923077" defaultRowHeight="14" customHeight="1"/>
@@ -47286,8 +47286,8 @@
       <c r="H3" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>636</v>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>73</v>

--- a/test/data/测试数据-实时推送-kafka工具.xlsx
+++ b/test/data/测试数据-实时推送-kafka工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916" activeTab="6"/>
+    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="22" r:id="rId1"/>
@@ -5901,10 +5901,10 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
@@ -5969,7 +5969,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="19">
         <v>500</v>
@@ -5995,7 +5995,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="19">
         <v>500</v>
@@ -6021,7 +6021,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="19">
         <v>500</v>
@@ -6047,7 +6047,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" s="19">
         <v>500</v>
@@ -6073,7 +6073,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" s="19">
         <v>500</v>
@@ -6099,7 +6099,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="19">
         <v>20</v>
@@ -6125,7 +6125,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C9" s="19">
         <v>50</v>
@@ -6147,7 +6147,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C10" s="19">
         <v>10</v>
@@ -6172,7 +6172,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C11" s="19">
         <v>10</v>
@@ -6192,7 +6192,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C12" s="19">
         <v>10</v>
@@ -6299,7 +6299,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:17">
+    <row r="2" ht="42" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>552</v>
       </c>
@@ -44146,7 +44146,7 @@
   </sheetPr>
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
@@ -51808,7 +51808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="56" spans="1:12">
+    <row r="2" ht="42" spans="1:12">
       <c r="A2" s="12" t="s">
         <v>57</v>
       </c>

--- a/test/data/测试数据-实时推送-kafka工具.xlsx
+++ b/test/data/测试数据-实时推送-kafka工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916"/>
+    <workbookView windowWidth="25600" windowHeight="12080" tabRatio="916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="22" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>sale_begin_time</t>
   </si>
   <si>
-    <t>sale_end_time|time</t>
+    <t>sale_end_time</t>
   </si>
   <si>
     <t>draw_status</t>
@@ -223,7 +223,7 @@
     <t>draw_time</t>
   </si>
   <si>
-    <t>paid_begin_time|time</t>
+    <t>paid_begin_time</t>
   </si>
   <si>
     <t>game_type</t>
@@ -4825,12 +4825,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -4852,17 +4851,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -5009,7 +5008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5019,12 +5018,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5326,19 +5319,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5347,7 +5340,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5371,16 +5364,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5389,89 +5382,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5529,55 +5522,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5901,10 +5861,10 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J13"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
@@ -5923,306 +5883,306 @@
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="94.5" spans="1:9">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" s="16" customFormat="1" spans="1:10">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="19">
         <v>30</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="19">
         <v>500</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" s="16" customFormat="1" spans="1:10">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="19">
         <v>30</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="19">
         <v>500</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" s="16" customFormat="1" spans="1:10">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="19">
         <v>30</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="19">
         <v>500</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" s="16" customFormat="1" spans="1:10">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="19">
         <v>30</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="19">
         <v>500</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="19">
         <v>30</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="19">
         <v>500</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="19">
         <v>30</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="19">
         <v>20</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="19">
         <v>50</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="19">
         <v>50</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="19">
         <v>24</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="30"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" ht="40.5" spans="1:10">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="19">
         <v>50</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="19">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="19">
         <v>24</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="19">
         <v>50</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="19">
         <v>10</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="19">
         <v>24</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="19">
         <v>50</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="19">
         <v>10</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="19">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23322,173 +23282,172 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="18.1538461538462" customWidth="1"/>
-    <col min="3" max="3" width="6.92307692307692" customWidth="1"/>
-    <col min="4" max="4" width="8.61538461538461" customWidth="1"/>
-    <col min="5" max="5" width="6.92307692307692" customWidth="1"/>
+    <col min="2" max="2" width="12.5384615384615" customWidth="1"/>
+    <col min="3" max="3" width="7.23076923076923" customWidth="1"/>
+    <col min="4" max="4" width="8.92307692307692" customWidth="1"/>
+    <col min="5" max="5" width="7.23076923076923" customWidth="1"/>
     <col min="6" max="6" width="18.1538461538462" customWidth="1"/>
     <col min="7" max="7" width="17.1538461538462" customWidth="1"/>
-    <col min="8" max="8" width="10.3076923076923" customWidth="1"/>
-    <col min="9" max="9" width="10.6923076923077" customWidth="1"/>
-    <col min="10" max="10" width="8.61538461538461" customWidth="1"/>
-    <col min="11" max="11" width="15.9230769230769" customWidth="1"/>
+    <col min="8" max="9" width="10.6923076923077" customWidth="1"/>
+    <col min="10" max="10" width="8.92307692307692" customWidth="1"/>
+    <col min="11" max="11" width="16.2307692307692" customWidth="1"/>
     <col min="12" max="12" width="13.4615384615385" customWidth="1"/>
     <col min="13" max="13" width="8.92307692307692" customWidth="1"/>
-    <col min="14" max="14" width="19.0769230769231" customWidth="1"/>
-    <col min="15" max="15" width="8.61538461538461" customWidth="1"/>
+    <col min="14" max="14" width="14.3846153846154" customWidth="1"/>
+    <col min="15" max="15" width="8.92307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="11" customFormat="1" ht="14" spans="1:15">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="224" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" s="12" customFormat="1" ht="224" spans="1:16">
+      <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>10006</v>
-      </c>
-      <c r="B3" s="23" t="s">
+    <row r="3" s="11" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
+      <c r="A3" s="11">
+        <v>10006</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="11">
         <v>200</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="11">
         <v>2021</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="11">
         <v>21104</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="11">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="11">
         <v>8</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="11">
         <v>0</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="11">
         <f>IF(C3&lt;260,1200,IF(C3=260,1260,1270))</f>
         <v>1200</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="11">
         <v>10006</v>
       </c>
     </row>
@@ -23508,7 +23467,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66923076923077" defaultRowHeight="14" customHeight="1"/>
@@ -34768,9 +34727,9 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A32"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66923076923077" defaultRowHeight="14" customHeight="1"/>
